--- a/Training/BiLSTM_LTC_result2.xlsx
+++ b/Training/BiLSTM_LTC_result2.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8504230515351074</v>
+        <v>1.069642612270421</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6174460925011532</v>
+        <v>0.7966873061579459</v>
       </c>
       <c r="G1" t="n">
-        <v>1.021787369370134</v>
+        <v>1.315035436454255</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>0.856730550270588</v>
+        <v>1.102425862814342</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6352139205126438</v>
+        <v>0.852465813456256</v>
       </c>
       <c r="G2" t="n">
-        <v>1.062238275013254</v>
+        <v>1.43584449171716</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7957422495422516</v>
+        <v>1.07760298767766</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5693970041119284</v>
+        <v>0.8381960504068696</v>
       </c>
       <c r="G3" t="n">
-        <v>0.93403792155094</v>
+        <v>1.417369608136598</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>1.073033338462114</v>
+        <v>0.8774588107526741</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8511848339480237</v>
+        <v>0.6754981604552411</v>
       </c>
       <c r="G4" t="n">
-        <v>1.44947830716091</v>
+        <v>1.153301394063806</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>1.139798307368248</v>
+        <v>0.9044492889168272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9213447452951913</v>
+        <v>0.6585853477463436</v>
       </c>
       <c r="G5" t="n">
-        <v>1.590997057680775</v>
+        <v>1.066064031527125</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7567752090591731</v>
+        <v>0.902648679660166</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5649716186230275</v>
+        <v>0.6614381679731847</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9553274969434266</v>
+        <v>1.073770616063568</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9366973081284331</v>
+        <v>0.6605675555940443</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7562724156448404</v>
+        <v>0.4740862461476658</v>
       </c>
       <c r="G7" t="n">
-        <v>1.344232005349405</v>
+        <v>0.8203759609488612</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7503281697246971</v>
+        <v>0.7839921060193217</v>
       </c>
       <c r="F8" t="n">
-        <v>0.556784223133274</v>
+        <v>0.5993954929913434</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9340420353442983</v>
+        <v>1.026870159863891</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7367269645452723</v>
+        <v>0.6778224190175138</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5454978040828944</v>
+        <v>0.4990288073100267</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9167962585312482</v>
+        <v>0.8648520753089793</v>
       </c>
     </row>
   </sheetData>
